--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H2">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I2">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J2">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N2">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O2">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P2">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q2">
-        <v>3063.679190588467</v>
+        <v>3983.548535623963</v>
       </c>
       <c r="R2">
-        <v>27573.1127152962</v>
+        <v>35851.93682061567</v>
       </c>
       <c r="S2">
-        <v>0.04491089253364289</v>
+        <v>0.0554211405296048</v>
       </c>
       <c r="T2">
-        <v>0.04491089253364289</v>
+        <v>0.05542114052960479</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H3">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I3">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J3">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.072614</v>
       </c>
       <c r="O3">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P3">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q3">
-        <v>6.154602521816666</v>
+        <v>7.917267007044667</v>
       </c>
       <c r="R3">
-        <v>55.39142269635</v>
+        <v>71.255403063402</v>
       </c>
       <c r="S3">
-        <v>9.02211606534115E-05</v>
+        <v>0.0001101490200216921</v>
       </c>
       <c r="T3">
-        <v>9.02211606534115E-05</v>
+        <v>0.0001101490200216921</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H4">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I4">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J4">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N4">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O4">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P4">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q4">
-        <v>2.049462774991667</v>
+        <v>2.073446557550889</v>
       </c>
       <c r="R4">
-        <v>18.445164974925</v>
+        <v>18.661019017958</v>
       </c>
       <c r="S4">
-        <v>3.004335529715588E-05</v>
+        <v>2.884683643716513E-05</v>
       </c>
       <c r="T4">
-        <v>3.004335529715588E-05</v>
+        <v>2.884683643716512E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H5">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I5">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J5">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N5">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O5">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P5">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q5">
-        <v>2.936583843230556</v>
+        <v>4.117729667724778</v>
       </c>
       <c r="R5">
-        <v>26.429254589075</v>
+        <v>37.059567009523</v>
       </c>
       <c r="S5">
-        <v>4.304778444313137E-05</v>
+        <v>5.728793625509379E-05</v>
       </c>
       <c r="T5">
-        <v>4.304778444313137E-05</v>
+        <v>5.728793625509377E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.21384166666667</v>
+        <v>22.14384766666667</v>
       </c>
       <c r="H6">
-        <v>51.641525</v>
+        <v>66.431543</v>
       </c>
       <c r="I6">
-        <v>0.04508658556266565</v>
+        <v>0.05562336639723622</v>
       </c>
       <c r="J6">
-        <v>0.04508658556266566</v>
+        <v>0.0556233663972362</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N6">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O6">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P6">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q6">
-        <v>0.8445741895861112</v>
+        <v>0.4271031525121111</v>
       </c>
       <c r="R6">
-        <v>7.601167706275001</v>
+        <v>3.843928372609</v>
       </c>
       <c r="S6">
-        <v>1.238072862906534E-05</v>
+        <v>5.942074917458815E-06</v>
       </c>
       <c r="T6">
-        <v>1.238072862906534E-05</v>
+        <v>5.942074917458814E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J7">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N7">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O7">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P7">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q7">
-        <v>61713.24533763572</v>
+        <v>62377.78232464266</v>
       </c>
       <c r="R7">
-        <v>555419.2080387215</v>
+        <v>561400.040921784</v>
       </c>
       <c r="S7">
-        <v>0.9046629091502663</v>
+        <v>0.8678312336911501</v>
       </c>
       <c r="T7">
-        <v>0.9046629091502663</v>
+        <v>0.8678312336911502</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J8">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>1.072614</v>
       </c>
       <c r="O8">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P8">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q8">
         <v>123.975283231776</v>
@@ -948,10 +948,10 @@
         <v>1115.777549085984</v>
       </c>
       <c r="S8">
-        <v>0.001817370643491157</v>
+        <v>0.001724806797944436</v>
       </c>
       <c r="T8">
-        <v>0.001817370643491157</v>
+        <v>0.001724806797944436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J9">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N9">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O9">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P9">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q9">
-        <v>41.28336916996799</v>
+        <v>32.467785159904</v>
       </c>
       <c r="R9">
-        <v>371.5503225297119</v>
+        <v>292.210066439136</v>
       </c>
       <c r="S9">
-        <v>0.000605178558484451</v>
+        <v>0.0004517082364982927</v>
       </c>
       <c r="T9">
-        <v>0.0006051785584844511</v>
+        <v>0.0004517082364982926</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1040.241456</v>
       </c>
       <c r="I10">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J10">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N10">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O10">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P10">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q10">
-        <v>59.15309923067201</v>
+        <v>64.478904320624</v>
       </c>
       <c r="R10">
-        <v>532.3778930760481</v>
+        <v>580.310138885616</v>
       </c>
       <c r="S10">
-        <v>0.000867133377000333</v>
+        <v>0.0008970631048150414</v>
       </c>
       <c r="T10">
-        <v>0.0008671333770003329</v>
+        <v>0.0008970631048150414</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>1040.241456</v>
       </c>
       <c r="I11">
-        <v>0.9082019830315988</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="J11">
-        <v>0.908201983031599</v>
+        <v>0.8709978578802913</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N11">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O11">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P11">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q11">
-        <v>17.012686683344</v>
+        <v>6.687943485391999</v>
       </c>
       <c r="R11">
-        <v>153.114180150096</v>
+        <v>60.191491368528</v>
       </c>
       <c r="S11">
-        <v>0.0002493913023567723</v>
+        <v>9.304604988323748E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002493913023567723</v>
+        <v>9.304604988323749E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H12">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J12">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N12">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O12">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P12">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q12">
-        <v>7.571525441552001</v>
+        <v>27.72822384705623</v>
       </c>
       <c r="R12">
-        <v>68.14372897396802</v>
+        <v>249.554014623506</v>
       </c>
       <c r="S12">
-        <v>0.0001109920276463313</v>
+        <v>0.0003857690641199471</v>
       </c>
       <c r="T12">
-        <v>0.0001109920276463313</v>
+        <v>0.0003857690641199471</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H13">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J13">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>1.072614</v>
       </c>
       <c r="O13">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P13">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q13">
-        <v>0.015210381596</v>
+        <v>0.05510959634733333</v>
       </c>
       <c r="R13">
-        <v>0.136893434364</v>
+        <v>0.495986367126</v>
       </c>
       <c r="S13">
-        <v>2.229710654275275E-07</v>
+        <v>7.667125570033894E-07</v>
       </c>
       <c r="T13">
-        <v>2.229710654275275E-07</v>
+        <v>7.667125570033892E-07</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H14">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J14">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N14">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O14">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P14">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q14">
-        <v>0.005065007977999999</v>
+        <v>0.01443260695044445</v>
       </c>
       <c r="R14">
-        <v>0.045585071802</v>
+        <v>0.129893462554</v>
       </c>
       <c r="S14">
-        <v>7.424864511950056E-08</v>
+        <v>2.007937221941855E-07</v>
       </c>
       <c r="T14">
-        <v>7.424864511950057E-08</v>
+        <v>2.007937221941855E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H15">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J15">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N15">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O15">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P15">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q15">
-        <v>0.007257424128666669</v>
+        <v>0.02866221634988889</v>
       </c>
       <c r="R15">
-        <v>0.06531681715800002</v>
+        <v>0.257959947149</v>
       </c>
       <c r="S15">
-        <v>1.063875735145135E-07</v>
+        <v>3.987632398630521E-07</v>
       </c>
       <c r="T15">
-        <v>1.063875735145134E-07</v>
+        <v>3.98763239863052E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.042542</v>
+        <v>0.1541363333333333</v>
       </c>
       <c r="H16">
-        <v>0.127626</v>
+        <v>0.462409</v>
       </c>
       <c r="I16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467397</v>
       </c>
       <c r="J16">
-        <v>0.000111426232455776</v>
+        <v>0.0003871766945467395</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N16">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O16">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P16">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q16">
-        <v>0.002087266507333334</v>
+        <v>0.002972930218555556</v>
       </c>
       <c r="R16">
-        <v>0.01878539856600001</v>
+        <v>0.026756371967</v>
       </c>
       <c r="S16">
-        <v>3.059752538316972E-08</v>
+        <v>4.13609077318468E-08</v>
       </c>
       <c r="T16">
-        <v>3.059752538316972E-08</v>
+        <v>4.136090773184679E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H17">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I17">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J17">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N17">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O17">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P17">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q17">
-        <v>3154.964108328522</v>
+        <v>5199.976011704509</v>
       </c>
       <c r="R17">
-        <v>28394.6769749567</v>
+        <v>46799.78410534058</v>
       </c>
       <c r="S17">
-        <v>0.04624905063556171</v>
+        <v>0.07234469436434493</v>
       </c>
       <c r="T17">
-        <v>0.04624905063556171</v>
+        <v>0.07234469436434494</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H18">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I18">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J18">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>1.072614</v>
       </c>
       <c r="O18">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P18">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q18">
-        <v>6.337984119554664</v>
+        <v>10.33490571201067</v>
       </c>
       <c r="R18">
-        <v>57.04185707599199</v>
+        <v>93.014151408096</v>
       </c>
       <c r="S18">
-        <v>9.290937659128097E-05</v>
+        <v>0.0001437844315698396</v>
       </c>
       <c r="T18">
-        <v>9.290937659128097E-05</v>
+        <v>0.0001437844315698396</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H19">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I19">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J19">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N19">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O19">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P19">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q19">
-        <v>2.110528255150666</v>
+        <v>2.706599973464889</v>
       </c>
       <c r="R19">
-        <v>18.994754296356</v>
+        <v>24.359399761184</v>
       </c>
       <c r="S19">
-        <v>3.093852252790283E-05</v>
+        <v>3.765558675773146E-05</v>
       </c>
       <c r="T19">
-        <v>3.093852252790283E-05</v>
+        <v>3.765558675773145E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H20">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I20">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J20">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N20">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O20">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P20">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q20">
-        <v>3.024081847391556</v>
+        <v>5.375131068033777</v>
       </c>
       <c r="R20">
-        <v>27.216736626524</v>
+        <v>48.37617961230399</v>
       </c>
       <c r="S20">
-        <v>4.433042966063801E-05</v>
+        <v>7.478154003209196E-05</v>
       </c>
       <c r="T20">
-        <v>4.4330429660638E-05</v>
+        <v>7.478154003209196E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.72674266666666</v>
+        <v>28.90575466666667</v>
       </c>
       <c r="H21">
-        <v>53.18022799999999</v>
+        <v>86.717264</v>
       </c>
       <c r="I21">
-        <v>0.04642997858727191</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="J21">
-        <v>0.04642997858727192</v>
+        <v>0.07260867248616912</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N21">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O21">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P21">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q21">
-        <v>0.869738993283111</v>
+        <v>0.5575245607591111</v>
       </c>
       <c r="R21">
-        <v>7.827650939548</v>
+        <v>5.017721046831999</v>
       </c>
       <c r="S21">
-        <v>1.274962293038059E-05</v>
+        <v>7.756563464513448E-06</v>
       </c>
       <c r="T21">
-        <v>1.274962293038058E-05</v>
+        <v>7.756563464513449E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H22">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J22">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>177.977656</v>
+        <v>179.8941446666667</v>
       </c>
       <c r="N22">
-        <v>533.9329680000001</v>
+        <v>539.6824340000001</v>
       </c>
       <c r="O22">
-        <v>0.9961032083749486</v>
+        <v>0.9963643720125241</v>
       </c>
       <c r="P22">
-        <v>0.9961032083749484</v>
+        <v>0.9963643720125243</v>
       </c>
       <c r="Q22">
-        <v>11.55347886512534</v>
+        <v>27.42384295428022</v>
       </c>
       <c r="R22">
-        <v>103.981309786128</v>
+        <v>246.814586588522</v>
       </c>
       <c r="S22">
-        <v>0.000169364027831417</v>
+        <v>0.0003815343633042777</v>
       </c>
       <c r="T22">
-        <v>0.000169364027831417</v>
+        <v>0.0003815343633042777</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H23">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J23">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>1.072614</v>
       </c>
       <c r="O23">
-        <v>0.002001064385947202</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="P23">
-        <v>0.002001064385947201</v>
+        <v>0.001980265258220062</v>
       </c>
       <c r="Q23">
-        <v>0.02320969844933333</v>
+        <v>0.05450464205133333</v>
       </c>
       <c r="R23">
-        <v>0.208887286044</v>
+        <v>0.490541778462</v>
       </c>
       <c r="S23">
-        <v>3.402341459244141E-07</v>
+        <v>7.582961270910189E-07</v>
       </c>
       <c r="T23">
-        <v>3.40234145924414E-07</v>
+        <v>7.582961270910189E-07</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H24">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J24">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.119059</v>
+        <v>0.09363533333333333</v>
       </c>
       <c r="N24">
-        <v>0.357177</v>
+        <v>0.280906</v>
       </c>
       <c r="O24">
-        <v>0.0006663479818270725</v>
+        <v>0.0005186100429656566</v>
       </c>
       <c r="P24">
-        <v>0.0006663479818270724</v>
+        <v>0.0005186100429656565</v>
       </c>
       <c r="Q24">
-        <v>0.007728754671333333</v>
+        <v>0.01427417596644444</v>
       </c>
       <c r="R24">
-        <v>0.06955879204199999</v>
+        <v>0.128467583698</v>
       </c>
       <c r="S24">
-        <v>1.132968724432503E-07</v>
+        <v>1.98589550273099E-07</v>
       </c>
       <c r="T24">
-        <v>1.132968724432502E-07</v>
+        <v>1.98589550273099E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.06491533333333334</v>
+        <v>0.1524443333333333</v>
       </c>
       <c r="H25">
-        <v>0.194746</v>
+        <v>0.457333</v>
       </c>
       <c r="I25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="J25">
-        <v>0.0001700265860078083</v>
+        <v>0.0003829265417566354</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1705943333333334</v>
+        <v>0.1859536666666667</v>
       </c>
       <c r="N25">
-        <v>0.5117830000000001</v>
+        <v>0.5578609999999999</v>
       </c>
       <c r="O25">
-        <v>0.0009547803167152555</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="P25">
-        <v>0.0009547803167152552</v>
+        <v>0.001029925730240237</v>
       </c>
       <c r="Q25">
-        <v>0.01107418801311112</v>
+        <v>0.02834758274588889</v>
       </c>
       <c r="R25">
-        <v>0.09966769211800001</v>
+        <v>0.2551282447129999</v>
       </c>
       <c r="S25">
-        <v>1.623380376385489E-07</v>
+        <v>3.943858981470715E-07</v>
       </c>
       <c r="T25">
-        <v>1.623380376385488E-07</v>
+        <v>3.943858981470715E-07</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1524443333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.457333</v>
+      </c>
+      <c r="I26">
+        <v>0.0003829265417566354</v>
+      </c>
+      <c r="J26">
+        <v>0.0003829265417566354</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G26">
-        <v>0.06491533333333334</v>
-      </c>
-      <c r="H26">
-        <v>0.194746</v>
-      </c>
-      <c r="I26">
-        <v>0.0001700265860078083</v>
-      </c>
-      <c r="J26">
-        <v>0.0001700265860078083</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M26">
-        <v>0.04906366666666667</v>
+        <v>0.01928766666666666</v>
       </c>
       <c r="N26">
-        <v>0.147191</v>
+        <v>0.057863</v>
       </c>
       <c r="O26">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="P26">
-        <v>0.0002745989405619865</v>
+        <v>0.0001068269560497881</v>
       </c>
       <c r="Q26">
-        <v>0.003184984276222223</v>
+        <v>0.002940295486555555</v>
       </c>
       <c r="R26">
-        <v>0.028664858486</v>
+        <v>0.026462659379</v>
       </c>
       <c r="S26">
-        <v>4.668912038511565E-08</v>
+        <v>4.090687684653345E-08</v>
       </c>
       <c r="T26">
-        <v>4.668912038511564E-08</v>
+        <v>4.090687684653345E-08</v>
       </c>
     </row>
   </sheetData>
